--- a/organisation/Sprint 1 - Zeitaufzeichnung.xlsx
+++ b/organisation/Sprint 1 - Zeitaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffce2ed5387dd938/Dokumente/GitHub/cellarius/organisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{65C0D87D-C112-45DE-9386-F52D71E733B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{135271E6-C3B5-4B69-AC1E-3CBEE7B2E0A3}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{65C0D87D-C112-45DE-9386-F52D71E733B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B648368-F91A-47C6-BE68-454AEC417BA8}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2010" windowWidth="21870" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18105" yWindow="-21600" windowWidth="18165" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Jakob Lehner</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Besprechung</t>
+  </si>
+  <si>
+    <t>Mitwirkender</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,6 +202,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -209,10 +221,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,6 +232,10 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -589,7 +601,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,17 +612,17 @@
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -636,7 +648,7 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
@@ -650,7 +662,7 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -664,7 +676,7 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -678,7 +690,7 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -692,7 +704,7 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -706,7 +718,7 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -720,7 +732,7 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -734,7 +746,7 @@
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -748,15 +760,15 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -764,7 +776,7 @@
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <f>D6+D10+D13</f>
         <v>0.25</v>
       </c>
@@ -773,7 +785,7 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <f>D6+D10+D13</f>
         <v>0.25</v>
       </c>
@@ -782,7 +794,7 @@
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <f>D5+D9+D13</f>
         <v>0.3888888888888889</v>
       </c>
@@ -791,16 +803,16 @@
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <f>D7+D11+D13</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <f>SUM(B19:B22)</f>
         <v>1.1388888888888888</v>
       </c>
